--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -15,14 +15,14 @@
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
     <sheet name="출판사목록" sheetId="3" r:id="rId2"/>
     <sheet name="저자목록" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="709">
   <si>
     <t>다산초당</t>
   </si>
@@ -1057,54 +1057,6 @@
     <t>A0034</t>
   </si>
   <si>
-    <t>A0040</t>
-  </si>
-  <si>
-    <t>A0049</t>
-  </si>
-  <si>
-    <t>A0100</t>
-  </si>
-  <si>
-    <t>A0052</t>
-  </si>
-  <si>
-    <t>A0084</t>
-  </si>
-  <si>
-    <t>A0076</t>
-  </si>
-  <si>
-    <t>A0072</t>
-  </si>
-  <si>
-    <t>A0079</t>
-  </si>
-  <si>
-    <t>A0090</t>
-  </si>
-  <si>
-    <t>A0038</t>
-  </si>
-  <si>
-    <t>A0080</t>
-  </si>
-  <si>
-    <t>A0097</t>
-  </si>
-  <si>
-    <t>A0069</t>
-  </si>
-  <si>
-    <t>A0053</t>
-  </si>
-  <si>
-    <t>A0045</t>
-  </si>
-  <si>
-    <t>A0066</t>
-  </si>
-  <si>
     <t>갈한수</t>
   </si>
   <si>
@@ -2137,6 +2089,91 @@
     <t>'9791162540596</t>
   </si>
   <si>
+    <t>2019-04-15</t>
+  </si>
+  <si>
+    <t>2019-04-11</t>
+  </si>
+  <si>
+    <t>2019-04-10</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2019-03-30</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>2019-03-15</t>
+  </si>
+  <si>
+    <t>2019-02-27</t>
+  </si>
+  <si>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>2019-02-20</t>
+  </si>
+  <si>
+    <t>2019-02-15</t>
+  </si>
+  <si>
+    <t>2019-01-30</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2019-01-28</t>
+  </si>
+  <si>
+    <t>2019-01-18</t>
+  </si>
+  <si>
+    <t>2019-01-10</t>
+  </si>
+  <si>
+    <t>2018-12-25</t>
+  </si>
+  <si>
+    <t>2018-12-20</t>
+  </si>
+  <si>
+    <t>2018-12-15</t>
+  </si>
+  <si>
+    <t>2018-11-29</t>
+  </si>
+  <si>
+    <t>2018-11-24</t>
+  </si>
+  <si>
+    <t>2018-11-23</t>
+  </si>
+  <si>
+    <t>2018-11-15</t>
+  </si>
+  <si>
+    <t>2018-10-31</t>
+  </si>
+  <si>
+    <t>2018-10-30</t>
+  </si>
+  <si>
+    <t>2018-10-29</t>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>도서명</t>
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
@@ -2157,93 +2194,24 @@
     <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
-    <t>2019-04-15</t>
-  </si>
-  <si>
-    <t>2019-04-11</t>
-  </si>
-  <si>
-    <t>2019-04-10</t>
-  </si>
-  <si>
-    <t>2019-03-31</t>
-  </si>
-  <si>
-    <t>2019-03-30</t>
-  </si>
-  <si>
-    <t>2019-03-25</t>
-  </si>
-  <si>
-    <t>2019-03-20</t>
-  </si>
-  <si>
-    <t>2019-03-15</t>
-  </si>
-  <si>
-    <t>2019-02-27</t>
-  </si>
-  <si>
-    <t>2019-02-26</t>
-  </si>
-  <si>
-    <t>2019-02-20</t>
-  </si>
-  <si>
-    <t>2019-02-15</t>
-  </si>
-  <si>
-    <t>2019-01-30</t>
-  </si>
-  <si>
-    <t>2019-01-29</t>
-  </si>
-  <si>
-    <t>2019-01-28</t>
-  </si>
-  <si>
-    <t>2019-01-18</t>
-  </si>
-  <si>
-    <t>2019-01-10</t>
-  </si>
-  <si>
-    <t>2018-12-25</t>
-  </si>
-  <si>
-    <t>2018-12-20</t>
-  </si>
-  <si>
-    <t>2018-12-15</t>
-  </si>
-  <si>
-    <t>2018-11-29</t>
-  </si>
-  <si>
-    <t>2018-11-24</t>
-  </si>
-  <si>
-    <t>2018-11-23</t>
-  </si>
-  <si>
-    <t>2018-11-15</t>
-  </si>
-  <si>
-    <t>2018-10-31</t>
-  </si>
-  <si>
-    <t>2018-10-30</t>
-  </si>
-  <si>
-    <t>2018-10-29</t>
-  </si>
-  <si>
-    <t>출판일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>가격</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지</t>
+    <phoneticPr fontId="21" type="noConversion"/>
   </si>
   <si>
     <t>ISBN</t>
     <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>출판일(문자열)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3278,22 +3246,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="79.5" style="1" customWidth="1"/>
-    <col min="3" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="2" max="2" width="29.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>203</v>
       </c>
@@ -3307,16 +3279,19 @@
         <v>292</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>719</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>698</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>207</v>
       </c>
@@ -3326,20 +3301,24 @@
       <c r="C2" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>312</v>
+      <c r="D2" s="7" t="str">
+        <f ca="1" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0019</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="F2" s="9">
+        <v>671</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="G2" s="9">
         <v>272</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>210</v>
       </c>
@@ -3349,20 +3328,24 @@
       <c r="C3" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>322</v>
+      <c r="D3" s="7" t="str">
+        <f t="shared" ref="D3:D31" ca="1" si="0" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
+        <v>A0006</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="F3" s="9">
+        <v>672</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="G3" s="9">
         <v>132</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>213</v>
       </c>
@@ -3372,20 +3355,24 @@
       <c r="C4" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>340</v>
+      <c r="D4" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0010</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F4" s="9">
+        <v>673</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G4" s="9">
         <v>388</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H4" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>216</v>
       </c>
@@ -3395,20 +3382,24 @@
       <c r="C5" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>341</v>
+      <c r="D5" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0026</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F5" s="9">
+        <v>673</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G5" s="9">
         <v>440</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H5" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>218</v>
       </c>
@@ -3418,20 +3409,24 @@
       <c r="C6" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>342</v>
+      <c r="D6" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0032</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F6" s="9">
+        <v>673</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G6" s="9">
         <v>280</v>
       </c>
-      <c r="G6" s="10">
+      <c r="H6" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>221</v>
       </c>
@@ -3441,20 +3436,24 @@
       <c r="C7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>343</v>
+      <c r="D7" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0008</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>694</v>
-      </c>
-      <c r="F7" s="9">
+        <v>673</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="G7" s="9">
         <v>368</v>
       </c>
-      <c r="G7" s="10">
+      <c r="H7" s="10">
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>224</v>
       </c>
@@ -3464,20 +3463,24 @@
       <c r="C8" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>326</v>
+      <c r="D8" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0012</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="F8" s="9">
+        <v>674</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="G8" s="9">
         <v>536</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H8" s="10">
         <v>22000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>226</v>
       </c>
@@ -3487,20 +3490,24 @@
       <c r="C9" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>307</v>
+      <c r="D9" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0016</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>696</v>
-      </c>
-      <c r="F9" s="9">
+        <v>675</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="G9" s="9">
         <v>232</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H9" s="10">
         <v>13000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>229</v>
       </c>
@@ -3510,20 +3517,24 @@
       <c r="C10" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>323</v>
+      <c r="D10" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0010</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="F10" s="9">
+        <v>676</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G10" s="9">
         <v>264</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H10" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>231</v>
       </c>
@@ -3533,20 +3544,24 @@
       <c r="C11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>344</v>
+      <c r="D11" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0016</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="F11" s="9">
+        <v>677</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>677</v>
+      </c>
+      <c r="G11" s="9">
         <v>500</v>
       </c>
-      <c r="G11" s="10">
+      <c r="H11" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>234</v>
       </c>
@@ -3556,20 +3571,24 @@
       <c r="C12" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>345</v>
+      <c r="D12" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0026</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="F12" s="9">
+        <v>678</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="G12" s="9">
         <v>248</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>237</v>
       </c>
@@ -3579,20 +3598,24 @@
       <c r="C13" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>346</v>
+      <c r="D13" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0015</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>700</v>
-      </c>
-      <c r="F13" s="9">
+        <v>679</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>679</v>
+      </c>
+      <c r="G13" s="9">
         <v>376</v>
       </c>
-      <c r="G13" s="10">
+      <c r="H13" s="10">
         <v>16800</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>240</v>
       </c>
@@ -3602,20 +3625,24 @@
       <c r="C14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>333</v>
+      <c r="D14" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0009</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>701</v>
-      </c>
-      <c r="F14" s="9">
+        <v>680</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="G14" s="9">
         <v>360</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H14" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>243</v>
       </c>
@@ -3625,20 +3652,24 @@
       <c r="C15" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>332</v>
+      <c r="D15" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0001</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>702</v>
-      </c>
-      <c r="F15" s="9">
+        <v>681</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="G15" s="9">
         <v>416</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H15" s="10">
         <v>16000</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>246</v>
       </c>
@@ -3648,20 +3679,24 @@
       <c r="C16" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>347</v>
+      <c r="D16" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0013</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="F16" s="9">
+        <v>682</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="G16" s="9">
         <v>252</v>
       </c>
-      <c r="G16" s="10">
+      <c r="H16" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>249</v>
       </c>
@@ -3671,20 +3706,24 @@
       <c r="C17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>309</v>
+      <c r="D17" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0008</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="F17" s="9">
+        <v>683</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="G17" s="9">
         <v>456</v>
       </c>
-      <c r="G17" s="10">
+      <c r="H17" s="10">
         <v>18000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>251</v>
       </c>
@@ -3694,20 +3733,24 @@
       <c r="C18" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>348</v>
+      <c r="D18" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0032</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="F18" s="9">
+        <v>684</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="G18" s="9">
         <v>252</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H18" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>254</v>
       </c>
@@ -3717,20 +3760,24 @@
       <c r="C19" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>349</v>
+      <c r="D19" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0022</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>706</v>
-      </c>
-      <c r="F19" s="9">
+        <v>685</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>685</v>
+      </c>
+      <c r="G19" s="9">
         <v>240</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H19" s="10">
         <v>13800</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>257</v>
       </c>
@@ -3740,20 +3787,24 @@
       <c r="C20" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>350</v>
+      <c r="D20" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0003</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>707</v>
-      </c>
-      <c r="F20" s="9">
+        <v>686</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="G20" s="9">
         <v>280</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H20" s="10">
         <v>15000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>260</v>
       </c>
@@ -3763,20 +3814,24 @@
       <c r="C21" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>311</v>
+      <c r="D21" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0019</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="F21" s="9">
+        <v>687</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>687</v>
+      </c>
+      <c r="G21" s="9">
         <v>316</v>
       </c>
-      <c r="G21" s="10">
+      <c r="H21" s="10">
         <v>15800</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>263</v>
       </c>
@@ -3786,20 +3841,24 @@
       <c r="C22" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>351</v>
+      <c r="D22" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0012</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="F22" s="9">
+        <v>688</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="G22" s="9">
         <v>256</v>
       </c>
-      <c r="G22" s="10">
+      <c r="H22" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>266</v>
       </c>
@@ -3809,20 +3868,24 @@
       <c r="C23" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>326</v>
+      <c r="D23" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0017</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="F23" s="9">
+        <v>689</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="G23" s="9">
         <v>272</v>
       </c>
-      <c r="G23" s="10">
+      <c r="H23" s="10">
         <v>14800</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>269</v>
       </c>
@@ -3832,20 +3895,24 @@
       <c r="C24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="7" t="s">
-        <v>316</v>
+      <c r="D24" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0034</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="F24" s="9">
+        <v>690</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>690</v>
+      </c>
+      <c r="G24" s="9">
         <v>232</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H24" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>272</v>
       </c>
@@ -3855,20 +3922,24 @@
       <c r="C25" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>322</v>
+      <c r="D25" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0004</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="F25" s="9">
+        <v>691</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="G25" s="9">
         <v>236</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H25" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>275</v>
       </c>
@@ -3878,20 +3949,24 @@
       <c r="C26" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D26" s="7" t="s">
-        <v>352</v>
+      <c r="D26" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0020</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="F26" s="9">
+        <v>692</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G26" s="9">
         <v>376</v>
       </c>
-      <c r="G26" s="10">
+      <c r="H26" s="10">
         <v>16500</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>277</v>
       </c>
@@ -3901,20 +3976,24 @@
       <c r="C27" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="7" t="s">
-        <v>353</v>
+      <c r="D27" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0009</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="F27" s="9">
+        <v>693</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="G27" s="9">
         <v>228</v>
       </c>
-      <c r="G27" s="10">
+      <c r="H27" s="10">
         <v>13500</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>280</v>
       </c>
@@ -3924,20 +4003,24 @@
       <c r="C28" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D28" s="7" t="s">
-        <v>354</v>
+      <c r="D28" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0028</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="F28" s="9">
+        <v>694</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>694</v>
+      </c>
+      <c r="G28" s="9">
         <v>232</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H28" s="10">
         <v>14800</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>283</v>
       </c>
@@ -3947,20 +4030,24 @@
       <c r="C29" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="7" t="s">
-        <v>355</v>
+      <c r="D29" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0008</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="F29" s="9">
+        <v>695</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="G29" s="9">
         <v>240</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H29" s="10">
         <v>14000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>286</v>
       </c>
@@ -3970,20 +4057,24 @@
       <c r="C30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="7" t="s">
-        <v>335</v>
+      <c r="D30" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0022</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>717</v>
-      </c>
-      <c r="F30" s="9">
+        <v>696</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G30" s="9">
         <v>464</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H30" s="10">
         <v>20000</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>289</v>
       </c>
@@ -3993,16 +4084,20 @@
       <c r="C31" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="7" t="s">
-        <v>310</v>
+      <c r="D31" s="7" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>A0018</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="F31" s="9">
+        <v>697</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>697</v>
+      </c>
+      <c r="G31" s="9">
         <v>436</v>
       </c>
-      <c r="G31" s="10">
+      <c r="H31" s="10">
         <v>18000</v>
       </c>
     </row>
@@ -4017,8 +4112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection sqref="A1:E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4055,13 +4150,13 @@
         <v>25</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4072,13 +4167,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4089,13 +4184,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4106,13 +4201,13 @@
         <v>65</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4123,13 +4218,13 @@
         <v>72</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4140,13 +4235,13 @@
         <v>42</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4157,13 +4252,13 @@
         <v>67</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4174,13 +4269,13 @@
         <v>33</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4191,13 +4286,13 @@
         <v>59</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4208,13 +4303,13 @@
         <v>19</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4225,13 +4320,13 @@
         <v>88</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4242,13 +4337,13 @@
         <v>74</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4259,13 +4354,13 @@
         <v>26</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4276,13 +4371,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4293,13 +4388,13 @@
         <v>18</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4310,13 +4405,13 @@
         <v>94</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4327,13 +4422,13 @@
         <v>80</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4344,13 +4439,13 @@
         <v>95</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4361,13 +4456,13 @@
         <v>99</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4378,13 +4473,13 @@
         <v>20</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4395,13 +4490,13 @@
         <v>21</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4412,13 +4507,13 @@
         <v>79</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4429,13 +4524,13 @@
         <v>3</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4446,13 +4541,13 @@
         <v>76</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4463,13 +4558,13 @@
         <v>85</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E26" s="12" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4480,13 +4575,13 @@
         <v>75</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4497,13 +4592,13 @@
         <v>30</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="E28" s="12" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4514,13 +4609,13 @@
         <v>7</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="E29" s="12" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4531,13 +4626,13 @@
         <v>87</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4548,13 +4643,13 @@
         <v>50</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4565,13 +4660,13 @@
         <v>70</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4582,13 +4677,13 @@
         <v>10</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="E33" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4599,13 +4694,13 @@
         <v>93</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="E34" s="12" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,13 +4711,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="E35" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4633,13 +4728,13 @@
         <v>44</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4650,13 +4745,13 @@
         <v>96</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4667,13 +4762,13 @@
         <v>91</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E38" s="12" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4684,13 +4779,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4701,13 +4796,13 @@
         <v>43</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E40" s="12" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4718,13 +4813,13 @@
         <v>71</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="E41" s="12" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4735,13 +4830,13 @@
         <v>52</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E42" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,13 +4847,13 @@
         <v>86</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="E43" s="12" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4769,13 +4864,13 @@
         <v>55</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4786,13 +4881,13 @@
         <v>92</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E45" s="12" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4803,13 +4898,13 @@
         <v>47</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
       <c r="E46" s="12" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4820,13 +4915,13 @@
         <v>63</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4837,13 +4932,13 @@
         <v>97</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4854,13 +4949,13 @@
         <v>61</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E49" s="12" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4871,13 +4966,13 @@
         <v>54</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4888,13 +4983,13 @@
         <v>49</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4905,13 +5000,13 @@
         <v>38</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4922,13 +5017,13 @@
         <v>17</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4939,13 +5034,13 @@
         <v>66</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4956,13 +5051,13 @@
         <v>73</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4973,13 +5068,13 @@
         <v>27</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -4990,13 +5085,13 @@
         <v>98</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5007,13 +5102,13 @@
         <v>56</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5024,13 +5119,13 @@
         <v>35</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5041,13 +5136,13 @@
         <v>24</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5058,13 +5153,13 @@
         <v>45</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="E61" s="12" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5075,13 +5170,13 @@
         <v>100</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5092,13 +5187,13 @@
         <v>78</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5109,13 +5204,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5126,13 +5221,13 @@
         <v>9</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>546</v>
+        <v>530</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5143,13 +5238,13 @@
         <v>46</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5160,13 +5255,13 @@
         <v>81</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="E67" s="12" t="s">
-        <v>553</v>
+        <v>537</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5177,13 +5272,13 @@
         <v>23</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
       <c r="E68" s="12" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5194,13 +5289,13 @@
         <v>84</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>558</v>
+        <v>542</v>
       </c>
       <c r="E69" s="12" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5211,13 +5306,13 @@
         <v>16</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
       <c r="E70" s="12" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5228,13 +5323,13 @@
         <v>14</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5245,13 +5340,13 @@
         <v>22</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5262,13 +5357,13 @@
         <v>6</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5279,13 +5374,13 @@
         <v>4</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="E74" s="12" t="s">
-        <v>574</v>
+        <v>558</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5296,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
       <c r="E75" s="12" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5313,13 +5408,13 @@
         <v>8</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>578</v>
+        <v>562</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5330,13 +5425,13 @@
         <v>82</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>583</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5347,13 +5442,13 @@
         <v>83</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5364,13 +5459,13 @@
         <v>51</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5381,13 +5476,13 @@
         <v>68</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="E80" s="12" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5398,13 +5493,13 @@
         <v>53</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5415,13 +5510,13 @@
         <v>69</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>597</v>
+        <v>581</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5432,13 +5527,13 @@
         <v>32</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5449,13 +5544,13 @@
         <v>34</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>602</v>
+        <v>586</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5466,13 +5561,13 @@
         <v>31</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5483,13 +5578,13 @@
         <v>89</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5500,13 +5595,13 @@
         <v>41</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5517,13 +5612,13 @@
         <v>39</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5534,13 +5629,13 @@
         <v>28</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5551,13 +5646,13 @@
         <v>11</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5568,13 +5663,13 @@
         <v>90</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>625</v>
+        <v>609</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5585,13 +5680,13 @@
         <v>12</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>626</v>
+        <v>610</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>627</v>
+        <v>611</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>628</v>
+        <v>612</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5602,13 +5697,13 @@
         <v>48</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>629</v>
+        <v>613</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>631</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5619,13 +5714,13 @@
         <v>29</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>632</v>
+        <v>616</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>633</v>
+        <v>617</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>634</v>
+        <v>618</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5636,13 +5731,13 @@
         <v>77</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>635</v>
+        <v>619</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>636</v>
+        <v>620</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>637</v>
+        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5653,13 +5748,13 @@
         <v>15</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>638</v>
+        <v>622</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5670,13 +5765,13 @@
         <v>37</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5687,13 +5782,13 @@
         <v>60</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5704,13 +5799,13 @@
         <v>62</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5721,13 +5816,13 @@
         <v>57</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -5738,13 +5833,13 @@
         <v>40</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>654</v>
+        <v>638</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>655</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -5762,7 +5857,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5795,10 +5890,10 @@
         <v>282</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5809,10 +5904,10 @@
         <v>239</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5823,10 +5918,10 @@
         <v>296</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5837,10 +5932,10 @@
         <v>236</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5851,10 +5946,10 @@
         <v>215</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5865,10 +5960,10 @@
         <v>259</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5879,10 +5974,10 @@
         <v>212</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5893,10 +5988,10 @@
         <v>285</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5907,10 +6002,10 @@
         <v>245</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5921,10 +6016,10 @@
         <v>265</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5935,10 +6030,10 @@
         <v>268</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5949,10 +6044,10 @@
         <v>297</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5963,10 +6058,10 @@
         <v>253</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5977,10 +6072,10 @@
         <v>242</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5991,10 +6086,10 @@
         <v>262</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6005,10 +6100,10 @@
         <v>279</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6019,10 +6114,10 @@
         <v>223</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6033,10 +6128,10 @@
         <v>209</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6047,10 +6142,10 @@
         <v>274</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6061,10 +6156,10 @@
         <v>248</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6075,10 +6170,10 @@
         <v>256</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6089,10 +6184,10 @@
         <v>220</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6103,10 +6198,10 @@
         <v>291</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6117,10 +6212,10 @@
         <v>288</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6131,10 +6226,10 @@
         <v>298</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6145,10 +6240,10 @@
         <v>215</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6159,10 +6254,10 @@
         <v>299</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6173,10 +6268,10 @@
         <v>271</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6187,10 +6282,10 @@
         <v>233</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6201,10 +6296,10 @@
         <v>228</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6215,10 +6310,10 @@
         <v>300</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6229,10 +6324,10 @@
         <v>301</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6243,10 +6338,10 @@
         <v>302</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -6257,10 +6352,10 @@
         <v>303</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -6275,42 +6370,53 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G2" sqref="G2:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
     <col min="2" max="2" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="7" max="7" width="16.75" style="15" customWidth="1"/>
-    <col min="8" max="8" width="24.375" style="15" customWidth="1"/>
-    <col min="9" max="10" width="9" customWidth="1"/>
+    <col min="3" max="3" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
+    <col min="8" max="8" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="B1" t="s">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="C1" t="s">
-        <v>688</v>
+        <v>700</v>
       </c>
       <c r="D1" t="s">
-        <v>689</v>
+        <v>701</v>
       </c>
       <c r="E1" t="s">
-        <v>690</v>
+        <v>702</v>
       </c>
       <c r="F1" t="s">
-        <v>691</v>
+        <v>703</v>
+      </c>
+      <c r="G1" t="s">
+        <v>707</v>
+      </c>
+      <c r="H1" t="s">
+        <v>704</v>
+      </c>
+      <c r="I1" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>657</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
         <v>290</v>
@@ -6319,19 +6425,19 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="E2" t="s">
-        <v>215</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="G2" s="15">
         <v>43402</v>
       </c>
-      <c r="H2" s="15">
-        <v>436</v>
+      <c r="H2">
+        <v>18000</v>
       </c>
       <c r="I2">
         <v>436</v>
@@ -6339,7 +6445,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="B3" t="s">
         <v>273</v>
@@ -6348,19 +6454,19 @@
         <v>59</v>
       </c>
       <c r="D3" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E3" t="s">
-        <v>223</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>432</v>
+        <v>389</v>
       </c>
       <c r="G3" s="15">
         <v>43433</v>
       </c>
-      <c r="H3" s="15">
-        <v>236</v>
+      <c r="H3">
+        <v>14000</v>
       </c>
       <c r="I3">
         <v>236</v>
@@ -6368,7 +6474,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>659</v>
+        <v>643</v>
       </c>
       <c r="B4" t="s">
         <v>261</v>
@@ -6377,19 +6483,19 @@
         <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="F4" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="G4" s="15">
         <v>43475</v>
       </c>
-      <c r="H4" s="15">
-        <v>316</v>
+      <c r="H4">
+        <v>15800</v>
       </c>
       <c r="I4">
         <v>316</v>
@@ -6397,7 +6503,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>660</v>
+        <v>644</v>
       </c>
       <c r="B5" t="s">
         <v>230</v>
@@ -6406,19 +6512,19 @@
         <v>80</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>303</v>
       </c>
       <c r="F5" t="s">
-        <v>435</v>
+        <v>467</v>
       </c>
       <c r="G5" s="15">
         <v>43549</v>
       </c>
-      <c r="H5" s="15">
-        <v>264</v>
+      <c r="H5">
+        <v>15000</v>
       </c>
       <c r="I5">
         <v>264</v>
@@ -6426,7 +6532,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>661</v>
+        <v>645</v>
       </c>
       <c r="B6" t="s">
         <v>214</v>
@@ -6435,13 +6541,19 @@
         <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>410</v>
+        <v>394</v>
+      </c>
+      <c r="E6" t="s">
+        <v>265</v>
+      </c>
+      <c r="F6" t="s">
+        <v>395</v>
       </c>
       <c r="G6" s="15">
         <v>43565</v>
       </c>
-      <c r="H6" s="15">
-        <v>388</v>
+      <c r="H6">
+        <v>14000</v>
       </c>
       <c r="I6">
         <v>388</v>
@@ -6449,7 +6561,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>662</v>
+        <v>646</v>
       </c>
       <c r="B7" t="s">
         <v>278</v>
@@ -6458,13 +6570,19 @@
         <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>425</v>
+        <v>409</v>
+      </c>
+      <c r="E7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F7" t="s">
+        <v>443</v>
       </c>
       <c r="G7" s="15">
         <v>43427</v>
       </c>
-      <c r="H7" s="15">
-        <v>228</v>
+      <c r="H7">
+        <v>13500</v>
       </c>
       <c r="I7">
         <v>228</v>
@@ -6472,59 +6590,65 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
         <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>443</v>
+        <v>427</v>
+      </c>
+      <c r="E8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" t="s">
+        <v>428</v>
       </c>
       <c r="G8" s="15">
-        <v>43565</v>
-      </c>
-      <c r="H8" s="15">
-        <v>440</v>
+        <v>43454</v>
+      </c>
+      <c r="H8">
+        <v>14800</v>
       </c>
       <c r="I8">
-        <v>440</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="G9" s="15">
-        <v>43454</v>
-      </c>
-      <c r="H9" s="15">
-        <v>272</v>
+        <v>43565</v>
+      </c>
+      <c r="H9">
+        <v>14000</v>
       </c>
       <c r="I9">
-        <v>272</v>
+        <v>440</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="B10" t="s">
         <v>270</v>
@@ -6533,19 +6657,19 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="G10" s="15">
         <v>43449</v>
       </c>
-      <c r="H10" s="15">
-        <v>232</v>
+      <c r="H10">
+        <v>13500</v>
       </c>
       <c r="I10">
         <v>232</v>
@@ -6553,7 +6677,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="B11" t="s">
         <v>232</v>
@@ -6562,13 +6686,19 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>455</v>
+        <v>439</v>
+      </c>
+      <c r="E11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" t="s">
+        <v>389</v>
       </c>
       <c r="G11" s="15">
         <v>43544</v>
       </c>
-      <c r="H11" s="15">
-        <v>500</v>
+      <c r="H11">
+        <v>13800</v>
       </c>
       <c r="I11">
         <v>500</v>
@@ -6576,59 +6706,65 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="B12" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>458</v>
+        <v>442</v>
+      </c>
+      <c r="E12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F12" t="s">
+        <v>452</v>
       </c>
       <c r="G12" s="15">
-        <v>43539</v>
-      </c>
-      <c r="H12" s="15">
-        <v>248</v>
+        <v>43554</v>
+      </c>
+      <c r="H12">
+        <v>13000</v>
       </c>
       <c r="I12">
-        <v>248</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="C13" t="s">
         <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="G13" s="15">
-        <v>43554</v>
-      </c>
-      <c r="H13" s="15">
-        <v>232</v>
+        <v>43539</v>
+      </c>
+      <c r="H13">
+        <v>13800</v>
       </c>
       <c r="I13">
-        <v>232</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="B14" t="s">
         <v>225</v>
@@ -6637,19 +6773,19 @@
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="E14" t="s">
-        <v>256</v>
+        <v>209</v>
       </c>
       <c r="F14" t="s">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="G14" s="15">
         <v>43555</v>
       </c>
-      <c r="H14" s="15">
-        <v>536</v>
+      <c r="H14">
+        <v>22000</v>
       </c>
       <c r="I14">
         <v>536</v>
@@ -6657,7 +6793,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="B15" t="s">
         <v>281</v>
@@ -6666,13 +6802,19 @@
         <v>86</v>
       </c>
       <c r="D15" t="s">
-        <v>479</v>
+        <v>463</v>
+      </c>
+      <c r="E15" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" t="s">
+        <v>419</v>
       </c>
       <c r="G15" s="15">
         <v>43419</v>
       </c>
-      <c r="H15" s="15">
-        <v>232</v>
+      <c r="H15">
+        <v>14800</v>
       </c>
       <c r="I15">
         <v>232</v>
@@ -6680,7 +6822,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="B16" t="s">
         <v>211</v>
@@ -6689,19 +6831,19 @@
         <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>282</v>
       </c>
       <c r="F16" t="s">
-        <v>432</v>
+        <v>368</v>
       </c>
       <c r="G16" s="15">
         <v>43566</v>
       </c>
-      <c r="H16" s="15">
-        <v>132</v>
+      <c r="H16">
+        <v>13000</v>
       </c>
       <c r="I16">
         <v>132</v>
@@ -6709,7 +6851,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
       <c r="B17" t="s">
         <v>284</v>
@@ -6718,13 +6860,19 @@
         <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>497</v>
+        <v>481</v>
+      </c>
+      <c r="E17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" t="s">
+        <v>407</v>
       </c>
       <c r="G17" s="15">
         <v>43404</v>
       </c>
-      <c r="H17" s="15">
-        <v>240</v>
+      <c r="H17">
+        <v>14000</v>
       </c>
       <c r="I17">
         <v>240</v>
@@ -6732,7 +6880,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="B18" t="s">
         <v>244</v>
@@ -6741,19 +6889,19 @@
         <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="G18" s="15">
         <v>43516</v>
       </c>
-      <c r="H18" s="15">
-        <v>416</v>
+      <c r="H18">
+        <v>16000</v>
       </c>
       <c r="I18">
         <v>416</v>
@@ -6761,7 +6909,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>658</v>
       </c>
       <c r="B19" t="s">
         <v>208</v>
@@ -6770,19 +6918,19 @@
         <v>61</v>
       </c>
       <c r="D19" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="E19" t="s">
-        <v>212</v>
+        <v>282</v>
       </c>
       <c r="F19" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="G19" s="15">
         <v>43570</v>
       </c>
-      <c r="H19" s="15">
-        <v>272</v>
+      <c r="H19">
+        <v>15000</v>
       </c>
       <c r="I19">
         <v>272</v>
@@ -6790,7 +6938,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
       <c r="B20" t="s">
         <v>247</v>
@@ -6799,13 +6947,19 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>506</v>
+        <v>490</v>
+      </c>
+      <c r="E20" t="s">
+        <v>228</v>
+      </c>
+      <c r="F20" t="s">
+        <v>455</v>
       </c>
       <c r="G20" s="15">
         <v>43511</v>
       </c>
-      <c r="H20" s="15">
-        <v>252</v>
+      <c r="H20">
+        <v>14000</v>
       </c>
       <c r="I20">
         <v>252</v>
@@ -6813,7 +6967,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="B21" t="s">
         <v>241</v>
@@ -6822,19 +6976,19 @@
         <v>56</v>
       </c>
       <c r="D21" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="F21" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="G21" s="15">
         <v>43522</v>
       </c>
-      <c r="H21" s="15">
-        <v>360</v>
+      <c r="H21">
+        <v>16000</v>
       </c>
       <c r="I21">
         <v>360</v>
@@ -6842,7 +6996,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>677</v>
+        <v>661</v>
       </c>
       <c r="B22" t="s">
         <v>258</v>
@@ -6851,13 +7005,19 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>536</v>
+        <v>520</v>
+      </c>
+      <c r="E22" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" t="s">
+        <v>434</v>
       </c>
       <c r="G22" s="15">
         <v>43483</v>
       </c>
-      <c r="H22" s="15">
-        <v>280</v>
+      <c r="H22">
+        <v>15000</v>
       </c>
       <c r="I22">
         <v>280</v>
@@ -6865,7 +7025,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>678</v>
+        <v>662</v>
       </c>
       <c r="B23" t="s">
         <v>255</v>
@@ -6874,13 +7034,19 @@
         <v>78</v>
       </c>
       <c r="D23" t="s">
-        <v>539</v>
+        <v>523</v>
+      </c>
+      <c r="E23" t="s">
+        <v>274</v>
+      </c>
+      <c r="F23" t="s">
+        <v>422</v>
       </c>
       <c r="G23" s="15">
         <v>43493</v>
       </c>
-      <c r="H23" s="15">
-        <v>240</v>
+      <c r="H23">
+        <v>13800</v>
       </c>
       <c r="I23">
         <v>240</v>
@@ -6888,7 +7054,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="B24" t="s">
         <v>238</v>
@@ -6897,13 +7063,19 @@
         <v>81</v>
       </c>
       <c r="D24" t="s">
-        <v>551</v>
+        <v>535</v>
+      </c>
+      <c r="E24" t="s">
+        <v>274</v>
+      </c>
+      <c r="F24" t="s">
+        <v>422</v>
       </c>
       <c r="G24" s="15">
         <v>43523</v>
       </c>
-      <c r="H24" s="15">
-        <v>376</v>
+      <c r="H24">
+        <v>16800</v>
       </c>
       <c r="I24">
         <v>376</v>
@@ -6911,7 +7083,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>680</v>
+        <v>664</v>
       </c>
       <c r="B25" t="s">
         <v>222</v>
@@ -6920,13 +7092,19 @@
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>569</v>
+        <v>553</v>
+      </c>
+      <c r="E25" t="s">
+        <v>212</v>
+      </c>
+      <c r="F25" t="s">
+        <v>386</v>
       </c>
       <c r="G25" s="15">
         <v>43565</v>
       </c>
-      <c r="H25" s="15">
-        <v>368</v>
+      <c r="H25">
+        <v>25000</v>
       </c>
       <c r="I25">
         <v>368</v>
@@ -6934,7 +7112,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>681</v>
+        <v>665</v>
       </c>
       <c r="B26" t="s">
         <v>287</v>
@@ -6943,19 +7121,19 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="E26" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F26" t="s">
-        <v>471</v>
+        <v>380</v>
       </c>
       <c r="G26" s="15">
         <v>43403</v>
       </c>
-      <c r="H26" s="15">
-        <v>464</v>
+      <c r="H26">
+        <v>20000</v>
       </c>
       <c r="I26">
         <v>464</v>
@@ -6963,7 +7141,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>682</v>
+        <v>666</v>
       </c>
       <c r="B27" t="s">
         <v>276</v>
@@ -6972,13 +7150,19 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>578</v>
+        <v>562</v>
+      </c>
+      <c r="E27" t="s">
+        <v>288</v>
+      </c>
+      <c r="F27" t="s">
+        <v>437</v>
       </c>
       <c r="G27" s="15">
         <v>43428</v>
       </c>
-      <c r="H27" s="15">
-        <v>376</v>
+      <c r="H27">
+        <v>16500</v>
       </c>
       <c r="I27">
         <v>376</v>
@@ -6986,7 +7170,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>683</v>
+        <v>667</v>
       </c>
       <c r="B28" t="s">
         <v>264</v>
@@ -6995,13 +7179,19 @@
         <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>584</v>
+        <v>568</v>
+      </c>
+      <c r="E28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F28" t="s">
+        <v>464</v>
       </c>
       <c r="G28" s="15">
         <v>43459</v>
       </c>
-      <c r="H28" s="15">
-        <v>256</v>
+      <c r="H28">
+        <v>13500</v>
       </c>
       <c r="I28">
         <v>256</v>
@@ -7009,7 +7199,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>684</v>
+        <v>668</v>
       </c>
       <c r="B29" t="s">
         <v>252</v>
@@ -7018,13 +7208,19 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>587</v>
+        <v>571</v>
+      </c>
+      <c r="E29" t="s">
+        <v>253</v>
+      </c>
+      <c r="F29" t="s">
+        <v>404</v>
       </c>
       <c r="G29" s="15">
         <v>43494</v>
       </c>
-      <c r="H29" s="15">
-        <v>252</v>
+      <c r="H29">
+        <v>13500</v>
       </c>
       <c r="I29">
         <v>252</v>
@@ -7032,7 +7228,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="B30" t="s">
         <v>219</v>
@@ -7041,13 +7237,19 @@
         <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>611</v>
+        <v>595</v>
+      </c>
+      <c r="E30" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" t="s">
+        <v>386</v>
       </c>
       <c r="G30" s="15">
         <v>43565</v>
       </c>
-      <c r="H30" s="15">
-        <v>280</v>
+      <c r="H30">
+        <v>15000</v>
       </c>
       <c r="I30">
         <v>280</v>
@@ -7055,28 +7257,28 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="B31" t="s">
-        <v>656</v>
+        <v>640</v>
       </c>
       <c r="C31" t="s">
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
       <c r="E31" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F31" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="G31" s="15">
         <v>43495</v>
       </c>
-      <c r="H31" s="15">
-        <v>456</v>
+      <c r="H31">
+        <v>18000</v>
       </c>
       <c r="I31">
         <v>456</v>
@@ -7085,5 +7287,6 @@
   </sheetData>
   <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -15,14 +15,15 @@
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
     <sheet name="출판사목록" sheetId="3" r:id="rId2"/>
     <sheet name="저자목록" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="회원정보" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="790">
   <si>
     <t>다산초당</t>
   </si>
@@ -217,7 +218,7 @@
   </si>
   <si>
     <t>출판사</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Angle Books</t>
@@ -329,15 +330,15 @@
   </si>
   <si>
     <t>출판사명</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>출판사코드</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>C0001</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>C0002</t>
@@ -638,7 +639,7 @@
   </si>
   <si>
     <t>ISBN</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>도서명</t>
@@ -780,7 +781,7 @@
   </si>
   <si>
     <t>뉴파워 - 새로운 권력의 탄생</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+    <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
     <t>9791188850402</t>
@@ -907,19 +908,19 @@
   </si>
   <si>
     <t>저자</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>대표</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>이요셉</t>
@@ -947,15 +948,15 @@
   </si>
   <si>
     <t>저자명</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>저자코드</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>A0001</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>A0002</t>
@@ -1082,7 +1083,7 @@
   </si>
   <si>
     <t>경북 영천시 문외동 38-3번</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>경시현</t>
@@ -1092,7 +1093,7 @@
   </si>
   <si>
     <t>서울시 구로구 구로동 3-35번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>공동영</t>
@@ -1120,7 +1121,7 @@
   </si>
   <si>
     <t>울산시 울주군 서생면 간절곶해안길 205</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>기은성</t>
@@ -1148,7 +1149,7 @@
   </si>
   <si>
     <t>경남 밀양시 내일동 649-7</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>낭시우</t>
@@ -1158,7 +1159,7 @@
   </si>
   <si>
     <t>경기도 파주시 문산읍 문산리 61-35번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>내세원</t>
@@ -1177,7 +1178,7 @@
   </si>
   <si>
     <t>제주시 연동 1482번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>단수혁</t>
@@ -1214,7 +1215,7 @@
   </si>
   <si>
     <t>경북 구미시 옥계동 840번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>독고예준</t>
@@ -1224,7 +1225,7 @@
   </si>
   <si>
     <t>경기도 이천시 신둔면 용면리 120번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>돈송혁</t>
@@ -1234,7 +1235,7 @@
   </si>
   <si>
     <t>충북 충주시 가금면 용전리 92번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>돈재현</t>
@@ -1244,7 +1245,7 @@
   </si>
   <si>
     <t>제주특별자치도 서귀포시 대정읍 상모리 133-8 번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>두동환</t>
@@ -1254,7 +1255,7 @@
   </si>
   <si>
     <t>경기도 파주시 금촌동 987-6번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>두채훈</t>
@@ -1264,7 +1265,7 @@
   </si>
   <si>
     <t>제주특별자치도 서귀포시 대정읍 상모리 133 번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>명윤일</t>
@@ -1301,7 +1302,7 @@
   </si>
   <si>
     <t>경기도 화성시 능동 445-2</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>방윤후</t>
@@ -1311,7 +1312,7 @@
   </si>
   <si>
     <t>경기도 고양시 일산동구 장항동 86</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>방채호</t>
@@ -1321,7 +1322,7 @@
   </si>
   <si>
     <t>서울시 관악구 신림동 1640-3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>배세준</t>
@@ -1349,7 +1350,7 @@
   </si>
   <si>
     <t>전북 부안군 변산면 격포리 290-1</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>복재민</t>
@@ -1404,7 +1405,7 @@
   </si>
   <si>
     <t>서울시 도봉구 쌍문동 45-8</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>사원호</t>
@@ -1414,7 +1415,7 @@
   </si>
   <si>
     <t>경남 창원시 진해구 이동 464-2번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>삼윤후</t>
@@ -1424,7 +1425,7 @@
   </si>
   <si>
     <t>인천시 연수구 동춘동 926번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>삼찬후</t>
@@ -1434,7 +1435,7 @@
   </si>
   <si>
     <t>경북 경주시 성건동 684-9번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>석서훈</t>
@@ -1480,7 +1481,7 @@
   </si>
   <si>
     <t>경기도 과천시 막계동 33</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>신찬영</t>
@@ -1490,7 +1491,7 @@
   </si>
   <si>
     <t xml:space="preserve">충남 아산시 배방읍 장래리 1760 </t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>심장호</t>
@@ -1500,7 +1501,7 @@
   </si>
   <si>
     <t>광주시 서구 치평동 1223-3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>아동은</t>
@@ -1510,7 +1511,7 @@
   </si>
   <si>
     <t>경기도 파주시 동패동 56</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>야유신</t>
@@ -1556,7 +1557,7 @@
   </si>
   <si>
     <t>경기도 용인시 처인구 김량장동 23-1번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>여동은</t>
@@ -1566,7 +1567,7 @@
   </si>
   <si>
     <t>충남 천안시 석북구 백석동 878번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>여민국</t>
@@ -1585,7 +1586,7 @@
   </si>
   <si>
     <t>서울시 영등포구 여의도동 23번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>옥원준</t>
@@ -1604,7 +1605,7 @@
   </si>
   <si>
     <t>서울시 광진구 구의동 611번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>옹효성</t>
@@ -1614,7 +1615,7 @@
   </si>
   <si>
     <t>충남 공주시 중동 67-3번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>운윤태</t>
@@ -1633,7 +1634,7 @@
   </si>
   <si>
     <t>울산시 동구 서부동 315-34</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>유민국</t>
@@ -1697,7 +1698,7 @@
   </si>
   <si>
     <t>인천시 송도 커넬워크 3동</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>점재민</t>
@@ -1716,7 +1717,7 @@
   </si>
   <si>
     <t>경기도 고양시 일산구 주엽2동 22번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>제동희</t>
@@ -1762,7 +1763,7 @@
   </si>
   <si>
     <t>충남 천안시 불당동 아산신도시 222</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>진대원</t>
@@ -1772,7 +1773,7 @@
   </si>
   <si>
     <t>부산시 연제구 연산동728-1번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>진대윤</t>
@@ -1800,7 +1801,7 @@
   </si>
   <si>
     <t>인천시 계양구 임학동 67-9</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>진승일</t>
@@ -1819,7 +1820,7 @@
   </si>
   <si>
     <t>인천시 연수구 선학동 406-5번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>초시민</t>
@@ -1874,7 +1875,7 @@
   </si>
   <si>
     <t>경남 진주시 상대동 300-59번지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>춘찬영</t>
@@ -1938,7 +1939,7 @@
   </si>
   <si>
     <t>대구시 달서구 감삼동 452-3</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>함민서</t>
@@ -1948,7 +1949,7 @@
   </si>
   <si>
     <t>경기도 수원시 영통구 광교신도시 13</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>해송혁</t>
@@ -2171,47 +2172,296 @@
   </si>
   <si>
     <t>출판일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>도서명</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>출판사명</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>출판사대표</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>저자</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>저자연락처</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>가격</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>페이지</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>ISBN</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>출판일</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>출판일(문자열)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원CODE</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원명</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>생년</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0001</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>B0002</t>
+  </si>
+  <si>
+    <t>B0003</t>
+  </si>
+  <si>
+    <t>B0004</t>
+  </si>
+  <si>
+    <t>B0005</t>
+  </si>
+  <si>
+    <t>B0006</t>
+  </si>
+  <si>
+    <t>B0007</t>
+  </si>
+  <si>
+    <t>B0008</t>
+  </si>
+  <si>
+    <t>B0009</t>
+  </si>
+  <si>
+    <t>B0010</t>
+  </si>
+  <si>
+    <t>B0011</t>
+  </si>
+  <si>
+    <t>B0012</t>
+  </si>
+  <si>
+    <t>B0013</t>
+  </si>
+  <si>
+    <t>B0014</t>
+  </si>
+  <si>
+    <t>B0015</t>
+  </si>
+  <si>
+    <t>B0016</t>
+  </si>
+  <si>
+    <t>B0017</t>
+  </si>
+  <si>
+    <t>B0018</t>
+  </si>
+  <si>
+    <t>B0019</t>
+  </si>
+  <si>
+    <t>B0020</t>
+  </si>
+  <si>
+    <t>B0021</t>
+  </si>
+  <si>
+    <t>B0022</t>
+  </si>
+  <si>
+    <t>B0023</t>
+  </si>
+  <si>
+    <t>B0024</t>
+  </si>
+  <si>
+    <t>B0025</t>
+  </si>
+  <si>
+    <t>B0026</t>
+  </si>
+  <si>
+    <t>B0027</t>
+  </si>
+  <si>
+    <t>B0028</t>
+  </si>
+  <si>
+    <t>B0029</t>
+  </si>
+  <si>
+    <t>B0030</t>
+  </si>
+  <si>
+    <t>090-4801-3270</t>
+  </si>
+  <si>
+    <t>경남 밀양시 내일동 649-7다복빌딩 1,2F</t>
+  </si>
+  <si>
+    <t>090-7747-5180</t>
+  </si>
+  <si>
+    <t>경기도 파주시 문산읍 문산리 61-35번지 1,2F</t>
+  </si>
+  <si>
+    <t>090-7389-6050</t>
+  </si>
+  <si>
+    <t>090-4236-8632</t>
+  </si>
+  <si>
+    <t>제주시 연동 1482번지 1층</t>
+  </si>
+  <si>
+    <t>090-7803-7980</t>
+  </si>
+  <si>
+    <t>090-2550-6900</t>
+  </si>
+  <si>
+    <t>090-8892-6166</t>
+  </si>
+  <si>
+    <t>090-8121-6030</t>
+  </si>
+  <si>
+    <t>경북 구미시 옥계동 840번지 경북프라자 1층</t>
+  </si>
+  <si>
+    <t>090-4735-8521</t>
+  </si>
+  <si>
+    <t>경기도 이천시 신둔면 용면리</t>
+  </si>
+  <si>
+    <t>090-4281-8070</t>
+  </si>
+  <si>
+    <t>충북 충주시 가금면 용전리</t>
+  </si>
+  <si>
+    <t>090-3432-3377</t>
+  </si>
+  <si>
+    <t>제주특별자치도 서귀포시 대정읍 상모리 133-8 번지외1필지</t>
+  </si>
+  <si>
+    <t>090-2024-3706</t>
+  </si>
+  <si>
+    <t>경기도 파주시 금촌동 987-6번지 혜인빌딩 1층</t>
+  </si>
+  <si>
+    <t>090-8062-2176</t>
+  </si>
+  <si>
+    <t>제주 공항로 2가 여객청사 1층 1번 대합실</t>
+  </si>
+  <si>
+    <t>090-6968-2306</t>
+  </si>
+  <si>
+    <t>090-4269-3660</t>
+  </si>
+  <si>
+    <t>090-8824-3371</t>
+  </si>
+  <si>
+    <t>090-5028-4236</t>
+  </si>
+  <si>
+    <t>경기도 화성시 능동 445-2외 10필지</t>
+  </si>
+  <si>
+    <t>090-7649-3582</t>
+  </si>
+  <si>
+    <t>경기도 고양시 일산동구 장항동 868 웨스턴돔 B동 108호, 208호</t>
+  </si>
+  <si>
+    <t>090-6743-3463</t>
+  </si>
+  <si>
+    <t>서울시 관악구 신림동 1640-3 2,3,4F</t>
+  </si>
+  <si>
+    <t>090-3934-3909</t>
+  </si>
+  <si>
+    <t>090-7457-7904</t>
+  </si>
+  <si>
+    <t>090-5718-5955</t>
+  </si>
+  <si>
+    <t>전북 부안군 변산면 격포리 290-1 채석강 국립공원 내 바다호텔 1층</t>
+  </si>
+  <si>
+    <t>090-3616-5665</t>
+  </si>
+  <si>
+    <t>090-3242-8364</t>
+  </si>
+  <si>
+    <t>090-3151-2527</t>
+  </si>
+  <si>
+    <t>090-3752-8845</t>
+  </si>
+  <si>
+    <t>090-4898-3637</t>
+  </si>
+  <si>
+    <t>090-3301-4952</t>
+  </si>
+  <si>
+    <t>서울시 도봉구 쌍문동 45-8 1F</t>
+  </si>
+  <si>
+    <t>090-5797-4124</t>
+  </si>
+  <si>
+    <t>경남 창원시 진해구 이동 464-2번지 1층</t>
+  </si>
+  <si>
+    <t>090-4602-3320</t>
+  </si>
+  <si>
+    <t>인천시 연수구 동춘동 926번지 1층</t>
   </si>
 </sst>
 </file>
@@ -2221,12 +2471,20 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2424,6 +2682,13 @@
       <name val="12롯데마트드림Medium"/>
       <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -2744,175 +3009,179 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="22" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="23" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="24" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="25" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="25" fillId="33" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="42" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="42" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2924,8 +3193,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="45">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 강조색2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 강조색3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -2969,6 +3246,8 @@
     <cellStyle name="출력" xfId="41" builtinId="21" customBuiltin="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="42"/>
+    <cellStyle name="표준 2 2" xfId="44"/>
+    <cellStyle name="표준 3" xfId="43"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3303,7 +3582,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0019</v>
+        <v>A0007</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>671</v>
@@ -3330,7 +3609,7 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0006</v>
+        <v>A0034</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>672</v>
@@ -3357,7 +3636,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0023</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>673</v>
@@ -3384,7 +3663,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0026</v>
+        <v>A0024</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>673</v>
@@ -3411,7 +3690,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0032</v>
+        <v>A0010</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>673</v>
@@ -3438,7 +3717,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0008</v>
+        <v>A0010</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>673</v>
@@ -3465,7 +3744,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0012</v>
+        <v>A0030</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>674</v>
@@ -3492,7 +3771,7 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0029</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>675</v>
@@ -3519,7 +3798,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0001</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>676</v>
@@ -3546,7 +3825,7 @@
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0018</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>677</v>
@@ -3573,7 +3852,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0026</v>
+        <v>A0012</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>678</v>
@@ -3600,7 +3879,7 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0015</v>
+        <v>A0020</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>679</v>
@@ -3627,7 +3906,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0026</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>680</v>
@@ -3654,7 +3933,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0001</v>
+        <v>A0022</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>681</v>
@@ -3681,7 +3960,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0013</v>
+        <v>A0007</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>682</v>
@@ -3708,7 +3987,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0008</v>
+        <v>A0028</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>683</v>
@@ -3735,7 +4014,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0032</v>
+        <v>A0021</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>684</v>
@@ -3762,7 +4041,7 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0019</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>685</v>
@@ -3789,7 +4068,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0034</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>686</v>
@@ -3816,7 +4095,7 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0028</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>687</v>
@@ -3843,7 +4122,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0012</v>
+        <v>A0004</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>688</v>
@@ -3870,7 +4149,7 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0017</v>
+        <v>A0022</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>689</v>
@@ -3897,7 +4176,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0006</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>690</v>
@@ -3924,7 +4203,7 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0023</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>691</v>
@@ -3951,7 +4230,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0034</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>692</v>
@@ -3978,7 +4257,7 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0002</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>693</v>
@@ -4005,7 +4284,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0023</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>694</v>
@@ -4032,7 +4311,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0008</v>
+        <v>A0009</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>695</v>
@@ -4086,7 +4365,7 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0027</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>697</v>
@@ -4102,7 +4381,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5846,7 +6125,7 @@
   <sortState ref="A2:B101">
     <sortCondition ref="B2:B101"/>
   </sortState>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5856,7 +6135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -6359,7 +6638,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6367,9 +6646,624 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="63.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>710</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>713</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="E1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>714</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C2" s="18">
+        <v>1964</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>744</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="18">
+        <v>1935</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>746</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="18">
+        <v>1935</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>748</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="18">
+        <v>1995</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>749</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>718</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="18">
+        <v>1979</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>751</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="18">
+        <v>1963</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>752</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="18">
+        <v>1930</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>753</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>721</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="18">
+        <v>1939</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>754</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="18">
+        <v>1981</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>756</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="18">
+        <v>1970</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>758</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>724</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2006</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>760</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>725</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="18">
+        <v>1946</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1979</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>764</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>727</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="18">
+        <v>1930</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>766</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>728</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="18">
+        <v>1992</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>767</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="18">
+        <v>1980</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="18" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1982</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>769</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="18" t="s">
+        <v>731</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1991</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>771</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" s="18">
+        <v>1992</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>773</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>733</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="18">
+        <v>1983</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>775</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>734</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" s="18">
+        <v>1988</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>776</v>
+      </c>
+      <c r="E22" s="17" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="18">
+        <v>1963</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>777</v>
+      </c>
+      <c r="E23" s="17" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="18">
+        <v>1939</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="E24" s="17" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="18">
+        <v>2009</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>780</v>
+      </c>
+      <c r="E25" s="17" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="18">
+        <v>1977</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>781</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" s="18">
+        <v>2008</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>782</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="18" t="s">
+        <v>740</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="18">
+        <v>1944</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>783</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1992</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>784</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>742</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1946</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>786</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="18" t="s">
+        <v>743</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1936</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="16"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="16"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="16"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="16"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="16"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="16"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="16"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="16"/>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="16"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="16"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="22" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G23"/>
     </sheetView>
   </sheetViews>
@@ -7285,7 +8179,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="786">
   <si>
     <t>다산초당</t>
   </si>
@@ -2329,24 +2329,15 @@
     <t>090-4801-3270</t>
   </si>
   <si>
-    <t>경남 밀양시 내일동 649-7다복빌딩 1,2F</t>
-  </si>
-  <si>
     <t>090-7747-5180</t>
   </si>
   <si>
-    <t>경기도 파주시 문산읍 문산리 61-35번지 1,2F</t>
-  </si>
-  <si>
     <t>090-7389-6050</t>
   </si>
   <si>
     <t>090-4236-8632</t>
   </si>
   <si>
-    <t>제주시 연동 1482번지 1층</t>
-  </si>
-  <si>
     <t>090-7803-7980</t>
   </si>
   <si>
@@ -2359,39 +2350,21 @@
     <t>090-8121-6030</t>
   </si>
   <si>
-    <t>경북 구미시 옥계동 840번지 경북프라자 1층</t>
-  </si>
-  <si>
     <t>090-4735-8521</t>
   </si>
   <si>
-    <t>경기도 이천시 신둔면 용면리</t>
-  </si>
-  <si>
     <t>090-4281-8070</t>
   </si>
   <si>
-    <t>충북 충주시 가금면 용전리</t>
-  </si>
-  <si>
     <t>090-3432-3377</t>
   </si>
   <si>
-    <t>제주특별자치도 서귀포시 대정읍 상모리 133-8 번지외1필지</t>
-  </si>
-  <si>
     <t>090-2024-3706</t>
   </si>
   <si>
-    <t>경기도 파주시 금촌동 987-6번지 혜인빌딩 1층</t>
-  </si>
-  <si>
     <t>090-8062-2176</t>
   </si>
   <si>
-    <t>제주 공항로 2가 여객청사 1층 1번 대합실</t>
-  </si>
-  <si>
     <t>090-6968-2306</t>
   </si>
   <si>
@@ -2404,21 +2377,12 @@
     <t>090-5028-4236</t>
   </si>
   <si>
-    <t>경기도 화성시 능동 445-2외 10필지</t>
-  </si>
-  <si>
     <t>090-7649-3582</t>
   </si>
   <si>
-    <t>경기도 고양시 일산동구 장항동 868 웨스턴돔 B동 108호, 208호</t>
-  </si>
-  <si>
     <t>090-6743-3463</t>
   </si>
   <si>
-    <t>서울시 관악구 신림동 1640-3 2,3,4F</t>
-  </si>
-  <si>
     <t>090-3934-3909</t>
   </si>
   <si>
@@ -2428,9 +2392,6 @@
     <t>090-5718-5955</t>
   </si>
   <si>
-    <t>전북 부안군 변산면 격포리 290-1 채석강 국립공원 내 바다호텔 1층</t>
-  </si>
-  <si>
     <t>090-3616-5665</t>
   </si>
   <si>
@@ -2449,19 +2410,46 @@
     <t>090-3301-4952</t>
   </si>
   <si>
-    <t>서울시 도봉구 쌍문동 45-8 1F</t>
-  </si>
-  <si>
     <t>090-5797-4124</t>
   </si>
   <si>
-    <t>경남 창원시 진해구 이동 464-2번지 1층</t>
-  </si>
-  <si>
     <t>090-4602-3320</t>
   </si>
   <si>
-    <t>인천시 연수구 동춘동 926번지 1층</t>
+    <t>경기도 과천시 막계동 33 서울랜드 정문</t>
+  </si>
+  <si>
+    <t>충남 아산시 배방읍 장래리 1760 1층</t>
+  </si>
+  <si>
+    <t>광주시 서구 치평동 1223-3.4</t>
+  </si>
+  <si>
+    <t>경기도 파주시 동패동 56 형성프라자 1층 113호</t>
+  </si>
+  <si>
+    <t>경기도 용인시 처인구 김량장동 23-1번지 용인터미널 내</t>
+  </si>
+  <si>
+    <t>충남 천안시 석북구 백석동 878번지 1F</t>
+  </si>
+  <si>
+    <t>서울시 영등포구 여의도동 23번지 ifc몰 국제금융센터</t>
+  </si>
+  <si>
+    <t>서울시 광진구 구의동 611번지 강변상가1,2층</t>
+  </si>
+  <si>
+    <t>충남 공주시 중동 67-3번지 1,2F</t>
+  </si>
+  <si>
+    <t>울산시 동구 서부동 315-34 2/3층</t>
+  </si>
+  <si>
+    <t>인천시 송도 커넬워크 3동 1층 156호</t>
+  </si>
+  <si>
+    <t>경기도 고양시 일산구 주엽2동 22번지 지하2층</t>
   </si>
 </sst>
 </file>
@@ -3195,12 +3183,10 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="43" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="43" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3582,7 +3568,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0007</v>
+        <v>A0026</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>671</v>
@@ -3609,7 +3595,7 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0034</v>
+        <v>A0029</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>672</v>
@@ -3636,7 +3622,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0003</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>673</v>
@@ -3663,7 +3649,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0024</v>
+        <v>A0012</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>673</v>
@@ -3690,7 +3676,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0029</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>673</v>
@@ -3717,7 +3703,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0008</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>673</v>
@@ -3744,7 +3730,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0030</v>
+        <v>A0021</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>674</v>
@@ -3771,7 +3757,7 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0010</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>675</v>
@@ -3798,7 +3784,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0001</v>
+        <v>A0002</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>676</v>
@@ -3825,7 +3811,7 @@
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0018</v>
+        <v>A0033</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>677</v>
@@ -3852,7 +3838,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0012</v>
+        <v>A0011</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>678</v>
@@ -3879,7 +3865,7 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0031</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>679</v>
@@ -3906,7 +3892,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0026</v>
+        <v>A0006</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>680</v>
@@ -3933,7 +3919,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0016</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>681</v>
@@ -3960,7 +3946,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0007</v>
+        <v>A0034</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>682</v>
@@ -3987,7 +3973,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0031</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>683</v>
@@ -4014,7 +4000,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0021</v>
+        <v>A0016</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>684</v>
@@ -4041,7 +4027,7 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0019</v>
+        <v>A0005</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>685</v>
@@ -4068,7 +4054,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0028</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>686</v>
@@ -4095,7 +4081,7 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0029</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>687</v>
@@ -4122,7 +4108,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0004</v>
+        <v>A0034</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>688</v>
@@ -4149,7 +4135,7 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0026</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>689</v>
@@ -4176,7 +4162,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0033</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>690</v>
@@ -4203,7 +4189,7 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0002</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>691</v>
@@ -4230,7 +4216,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0020</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>692</v>
@@ -4257,7 +4243,7 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0022</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>693</v>
@@ -4284,7 +4270,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0023</v>
+        <v>A0031</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>694</v>
@@ -4311,7 +4297,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0017</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>695</v>
@@ -4365,7 +4351,7 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0027</v>
+        <v>A0009</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>697</v>
@@ -6648,8 +6634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6662,530 +6648,530 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>709</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>710</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>711</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="11" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="13" t="s">
         <v>714</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="13">
         <v>1964</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>715</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>409</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1935</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
-        <v>715</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="18">
+      <c r="E3" s="19" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>716</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>412</v>
+      </c>
+      <c r="C4" s="13">
         <v>1935</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>746</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E4" s="19" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>415</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1995</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
-        <v>716</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="18">
-        <v>1935</v>
-      </c>
-      <c r="D4" s="19" t="s">
+      <c r="E5" s="19" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>718</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1979</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>748</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
-        <v>717</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="18">
-        <v>1995</v>
-      </c>
-      <c r="D5" s="19" t="s">
+      <c r="E6" s="19" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>719</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1963</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E7" s="19" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>720</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1930</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
-        <v>718</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="18">
+      <c r="E8" s="19" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>427</v>
+      </c>
+      <c r="C9" s="13">
+        <v>1939</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>722</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="13">
+        <v>1981</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>723</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="C11" s="13">
+        <v>1970</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>753</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>724</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="13">
+        <v>2006</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>725</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="C13" s="13">
+        <v>1946</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="C14" s="13">
         <v>1979</v>
       </c>
-      <c r="D6" s="19" t="s">
-        <v>751</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>719</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="18">
+      <c r="D14" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>727</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1930</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>757</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>728</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>448</v>
+      </c>
+      <c r="C16" s="13">
+        <v>1992</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>729</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="C17" s="13">
+        <v>1980</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="C18" s="13">
+        <v>1982</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>760</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="C19" s="13">
+        <v>1991</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>732</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C20" s="13">
+        <v>1992</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>762</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="C21" s="13">
+        <v>1983</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>763</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="C22" s="13">
+        <v>1988</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>764</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>469</v>
+      </c>
+      <c r="C23" s="13">
         <v>1963</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>752</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>720</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="18">
-        <v>1930</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>753</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>721</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="C9" s="18">
+      <c r="D23" s="18" t="s">
+        <v>765</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="C24" s="13">
         <v>1939</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>754</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>722</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>430</v>
-      </c>
-      <c r="C10" s="18">
-        <v>1981</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>756</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>723</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="18">
-        <v>1970</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>758</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>724</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="18">
-        <v>2006</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>760</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
-        <v>725</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>439</v>
-      </c>
-      <c r="C13" s="18">
+      <c r="D24" s="18" t="s">
+        <v>766</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="C25" s="13">
+        <v>2009</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>767</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>738</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="13">
+        <v>1977</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>768</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>739</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2008</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>769</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>740</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="13">
+        <v>1944</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>770</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>741</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="C29" s="13">
+        <v>1992</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>771</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>742</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="C30" s="13">
         <v>1946</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>762</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
-        <v>726</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="18">
-        <v>1979</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>764</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>727</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="18">
-        <v>1930</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>766</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>728</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>448</v>
-      </c>
-      <c r="C16" s="18">
-        <v>1992</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>767</v>
-      </c>
-      <c r="E16" s="17" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>729</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="18">
-        <v>1980</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>768</v>
-      </c>
-      <c r="E17" s="17" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
-        <v>730</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="18">
-        <v>1982</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>769</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="18" t="s">
-        <v>731</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="18">
-        <v>1991</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>771</v>
-      </c>
-      <c r="E19" s="17" t="s">
+      <c r="D30" s="18" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
-        <v>732</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>460</v>
-      </c>
-      <c r="C20" s="18">
-        <v>1992</v>
-      </c>
-      <c r="D20" s="19" t="s">
+      <c r="E30" s="19" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>743</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="C31" s="13">
+        <v>1936</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>773</v>
       </c>
-      <c r="E20" s="17" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
-        <v>733</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>463</v>
-      </c>
-      <c r="C21" s="18">
-        <v>1983</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>775</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>734</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="C22" s="18">
-        <v>1988</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>776</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>735</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>469</v>
-      </c>
-      <c r="C23" s="18">
-        <v>1963</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>777</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
-        <v>736</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="18">
-        <v>1939</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>779</v>
-      </c>
-      <c r="E24" s="17" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
-        <v>737</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" s="18">
-        <v>2009</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>780</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
-        <v>738</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" s="18">
-        <v>1977</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>781</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
-        <v>739</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>481</v>
-      </c>
-      <c r="C27" s="18">
-        <v>2008</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>782</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
-        <v>740</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>484</v>
-      </c>
-      <c r="C28" s="18">
-        <v>1944</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>783</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
-        <v>741</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>487</v>
-      </c>
-      <c r="C29" s="18">
-        <v>1992</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>784</v>
-      </c>
-      <c r="E29" s="17" t="s">
+      <c r="E31" s="19" t="s">
         <v>785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
-        <v>742</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>490</v>
-      </c>
-      <c r="C30" s="18">
-        <v>1946</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>786</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
-        <v>743</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>493</v>
-      </c>
-      <c r="C31" s="18">
-        <v>1936</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>788</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">

--- a/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
+++ b/도서대여 프로젝트/샘플-도서정보(2021-04-29).xlsx
@@ -15,15 +15,14 @@
     <sheet name="도서목록" sheetId="2" r:id="rId1"/>
     <sheet name="출판사목록" sheetId="3" r:id="rId2"/>
     <sheet name="저자목록" sheetId="5" r:id="rId3"/>
-    <sheet name="회원정보" sheetId="7" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1117" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="709">
   <si>
     <t>다산초당</t>
   </si>
@@ -2213,243 +2212,6 @@
   <si>
     <t>출판일(문자열)</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원CODE</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원명</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화번호</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>생년</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0001</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>B0002</t>
-  </si>
-  <si>
-    <t>B0003</t>
-  </si>
-  <si>
-    <t>B0004</t>
-  </si>
-  <si>
-    <t>B0005</t>
-  </si>
-  <si>
-    <t>B0006</t>
-  </si>
-  <si>
-    <t>B0007</t>
-  </si>
-  <si>
-    <t>B0008</t>
-  </si>
-  <si>
-    <t>B0009</t>
-  </si>
-  <si>
-    <t>B0010</t>
-  </si>
-  <si>
-    <t>B0011</t>
-  </si>
-  <si>
-    <t>B0012</t>
-  </si>
-  <si>
-    <t>B0013</t>
-  </si>
-  <si>
-    <t>B0014</t>
-  </si>
-  <si>
-    <t>B0015</t>
-  </si>
-  <si>
-    <t>B0016</t>
-  </si>
-  <si>
-    <t>B0017</t>
-  </si>
-  <si>
-    <t>B0018</t>
-  </si>
-  <si>
-    <t>B0019</t>
-  </si>
-  <si>
-    <t>B0020</t>
-  </si>
-  <si>
-    <t>B0021</t>
-  </si>
-  <si>
-    <t>B0022</t>
-  </si>
-  <si>
-    <t>B0023</t>
-  </si>
-  <si>
-    <t>B0024</t>
-  </si>
-  <si>
-    <t>B0025</t>
-  </si>
-  <si>
-    <t>B0026</t>
-  </si>
-  <si>
-    <t>B0027</t>
-  </si>
-  <si>
-    <t>B0028</t>
-  </si>
-  <si>
-    <t>B0029</t>
-  </si>
-  <si>
-    <t>B0030</t>
-  </si>
-  <si>
-    <t>090-4801-3270</t>
-  </si>
-  <si>
-    <t>090-7747-5180</t>
-  </si>
-  <si>
-    <t>090-7389-6050</t>
-  </si>
-  <si>
-    <t>090-4236-8632</t>
-  </si>
-  <si>
-    <t>090-7803-7980</t>
-  </si>
-  <si>
-    <t>090-2550-6900</t>
-  </si>
-  <si>
-    <t>090-8892-6166</t>
-  </si>
-  <si>
-    <t>090-8121-6030</t>
-  </si>
-  <si>
-    <t>090-4735-8521</t>
-  </si>
-  <si>
-    <t>090-4281-8070</t>
-  </si>
-  <si>
-    <t>090-3432-3377</t>
-  </si>
-  <si>
-    <t>090-2024-3706</t>
-  </si>
-  <si>
-    <t>090-8062-2176</t>
-  </si>
-  <si>
-    <t>090-6968-2306</t>
-  </si>
-  <si>
-    <t>090-4269-3660</t>
-  </si>
-  <si>
-    <t>090-8824-3371</t>
-  </si>
-  <si>
-    <t>090-5028-4236</t>
-  </si>
-  <si>
-    <t>090-7649-3582</t>
-  </si>
-  <si>
-    <t>090-6743-3463</t>
-  </si>
-  <si>
-    <t>090-3934-3909</t>
-  </si>
-  <si>
-    <t>090-7457-7904</t>
-  </si>
-  <si>
-    <t>090-5718-5955</t>
-  </si>
-  <si>
-    <t>090-3616-5665</t>
-  </si>
-  <si>
-    <t>090-3242-8364</t>
-  </si>
-  <si>
-    <t>090-3151-2527</t>
-  </si>
-  <si>
-    <t>090-3752-8845</t>
-  </si>
-  <si>
-    <t>090-4898-3637</t>
-  </si>
-  <si>
-    <t>090-3301-4952</t>
-  </si>
-  <si>
-    <t>090-5797-4124</t>
-  </si>
-  <si>
-    <t>090-4602-3320</t>
-  </si>
-  <si>
-    <t>경기도 과천시 막계동 33 서울랜드 정문</t>
-  </si>
-  <si>
-    <t>충남 아산시 배방읍 장래리 1760 1층</t>
-  </si>
-  <si>
-    <t>광주시 서구 치평동 1223-3.4</t>
-  </si>
-  <si>
-    <t>경기도 파주시 동패동 56 형성프라자 1층 113호</t>
-  </si>
-  <si>
-    <t>경기도 용인시 처인구 김량장동 23-1번지 용인터미널 내</t>
-  </si>
-  <si>
-    <t>충남 천안시 석북구 백석동 878번지 1F</t>
-  </si>
-  <si>
-    <t>서울시 영등포구 여의도동 23번지 ifc몰 국제금융센터</t>
-  </si>
-  <si>
-    <t>서울시 광진구 구의동 611번지 강변상가1,2층</t>
-  </si>
-  <si>
-    <t>충남 공주시 중동 67-3번지 1,2F</t>
-  </si>
-  <si>
-    <t>울산시 동구 서부동 315-34 2/3층</t>
-  </si>
-  <si>
-    <t>인천시 송도 커넬워크 3동 1층 156호</t>
-  </si>
-  <si>
-    <t>경기도 고양시 일산구 주엽2동 22번지 지하2층</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +2894,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3181,12 +2943,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="43" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="43" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - 강조색1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -3568,7 +3324,7 @@
       </c>
       <c r="D2" s="7" t="str">
         <f ca="1" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0026</v>
+        <v>A0005</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>671</v>
@@ -3595,7 +3351,7 @@
       </c>
       <c r="D3" s="7" t="str">
         <f t="shared" ref="D3:D31" ca="1" si="0" xml:space="preserve"> "A" &amp; TEXT(RANDBETWEEN(1,34),"0000")</f>
-        <v>A0029</v>
+        <v>A0011</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>672</v>
@@ -3622,7 +3378,7 @@
       </c>
       <c r="D4" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0003</v>
+        <v>A0013</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>673</v>
@@ -3649,7 +3405,7 @@
       </c>
       <c r="D5" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0012</v>
+        <v>A0002</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>673</v>
@@ -3676,7 +3432,7 @@
       </c>
       <c r="D6" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0030</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>673</v>
@@ -3703,7 +3459,7 @@
       </c>
       <c r="D7" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0008</v>
+        <v>A0014</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>673</v>
@@ -3730,7 +3486,7 @@
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0021</v>
+        <v>A0015</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>674</v>
@@ -3757,7 +3513,7 @@
       </c>
       <c r="D9" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0010</v>
+        <v>A0032</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>675</v>
@@ -3784,7 +3540,7 @@
       </c>
       <c r="D10" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0001</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>676</v>
@@ -3811,7 +3567,7 @@
       </c>
       <c r="D11" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0033</v>
+        <v>A0034</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>677</v>
@@ -3838,7 +3594,7 @@
       </c>
       <c r="D12" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0011</v>
+        <v>A0014</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>678</v>
@@ -3865,7 +3621,7 @@
       </c>
       <c r="D13" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0004</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>679</v>
@@ -3892,7 +3648,7 @@
       </c>
       <c r="D14" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0006</v>
+        <v>A0032</v>
       </c>
       <c r="E14" s="8" t="s">
         <v>680</v>
@@ -3919,7 +3675,7 @@
       </c>
       <c r="D15" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0029</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>681</v>
@@ -3946,7 +3702,7 @@
       </c>
       <c r="D16" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0014</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>682</v>
@@ -3973,7 +3729,7 @@
       </c>
       <c r="D17" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0004</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>683</v>
@@ -4000,7 +3756,7 @@
       </c>
       <c r="D18" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0016</v>
+        <v>A0003</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>684</v>
@@ -4027,7 +3783,7 @@
       </c>
       <c r="D19" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0005</v>
+        <v>A0023</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>685</v>
@@ -4054,7 +3810,7 @@
       </c>
       <c r="D20" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0028</v>
+        <v>A0005</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>686</v>
@@ -4081,7 +3837,7 @@
       </c>
       <c r="D21" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0029</v>
+        <v>A0018</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>687</v>
@@ -4108,7 +3864,7 @@
       </c>
       <c r="D22" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0034</v>
+        <v>A0009</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>688</v>
@@ -4135,7 +3891,7 @@
       </c>
       <c r="D23" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0026</v>
+        <v>A0030</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>689</v>
@@ -4162,7 +3918,7 @@
       </c>
       <c r="D24" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0033</v>
+        <v>A0021</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>690</v>
@@ -4189,7 +3945,7 @@
       </c>
       <c r="D25" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0002</v>
+        <v>A0026</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>691</v>
@@ -4216,7 +3972,7 @@
       </c>
       <c r="D26" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0020</v>
+        <v>A0018</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>692</v>
@@ -4243,7 +3999,7 @@
       </c>
       <c r="D27" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0028</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>693</v>
@@ -4270,7 +4026,7 @@
       </c>
       <c r="D28" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0031</v>
+        <v>A0028</v>
       </c>
       <c r="E28" s="8" t="s">
         <v>694</v>
@@ -4297,7 +4053,7 @@
       </c>
       <c r="D29" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0017</v>
+        <v>A0016</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>695</v>
@@ -4324,7 +4080,7 @@
       </c>
       <c r="D30" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0022</v>
+        <v>A0019</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>696</v>
@@ -4351,7 +4107,7 @@
       </c>
       <c r="D31" s="7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>A0009</v>
+        <v>A0023</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>697</v>
@@ -6632,624 +6388,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E48"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="15.625" customWidth="1"/>
-    <col min="5" max="5" width="63.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>709</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>710</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>711</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>406</v>
-      </c>
-      <c r="C2" s="13">
-        <v>1964</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>744</v>
-      </c>
-      <c r="E2" s="19" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
-        <v>715</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>409</v>
-      </c>
-      <c r="C3" s="13">
-        <v>1935</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>745</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
-        <v>716</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>412</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1935</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>746</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
-        <v>717</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>415</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1995</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>747</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="13" t="s">
-        <v>718</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1979</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>748</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>719</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>421</v>
-      </c>
-      <c r="C7" s="13">
-        <v>1963</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>749</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
-        <v>720</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>424</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1930</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>750</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
-        <v>721</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>427</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1939</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>751</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>722</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>430</v>
-      </c>
-      <c r="C10" s="13">
-        <v>1981</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>752</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
-        <v>723</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>433</v>
-      </c>
-      <c r="C11" s="13">
-        <v>1970</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>753</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>724</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="C12" s="13">
-        <v>2006</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>754</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="13" t="s">
-        <v>725</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>439</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1946</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>755</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13" t="s">
-        <v>726</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>442</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1979</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>756</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="13" t="s">
-        <v>727</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="13">
-        <v>1930</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>757</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="13" t="s">
-        <v>728</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>448</v>
-      </c>
-      <c r="C16" s="13">
-        <v>1992</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>758</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
-        <v>729</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>451</v>
-      </c>
-      <c r="C17" s="13">
-        <v>1980</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>759</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>454</v>
-      </c>
-      <c r="C18" s="13">
-        <v>1982</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>760</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="C19" s="13">
-        <v>1991</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>761</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13" t="s">
-        <v>732</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>460</v>
-      </c>
-      <c r="C20" s="13">
-        <v>1992</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>762</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13" t="s">
-        <v>733</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>463</v>
-      </c>
-      <c r="C21" s="13">
-        <v>1983</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>763</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="13" t="s">
-        <v>734</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>466</v>
-      </c>
-      <c r="C22" s="13">
-        <v>1988</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>764</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
-        <v>735</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>469</v>
-      </c>
-      <c r="C23" s="13">
-        <v>1963</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>765</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>472</v>
-      </c>
-      <c r="C24" s="13">
-        <v>1939</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>766</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
-        <v>737</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>475</v>
-      </c>
-      <c r="C25" s="13">
-        <v>2009</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>767</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
-        <v>738</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>478</v>
-      </c>
-      <c r="C26" s="13">
-        <v>1977</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>768</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
-        <v>739</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>481</v>
-      </c>
-      <c r="C27" s="13">
-        <v>2008</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>769</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>740</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>484</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1944</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>770</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>487</v>
-      </c>
-      <c r="C29" s="13">
-        <v>1992</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>771</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="13" t="s">
-        <v>742</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>490</v>
-      </c>
-      <c r="C30" s="13">
-        <v>1946</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>772</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
-        <v>743</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>493</v>
-      </c>
-      <c r="C31" s="13">
-        <v>1936</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>773</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="16"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="16"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="16"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="16"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="16"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="16"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="16"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="16"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="16"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="16"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="16"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="16"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="16"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="22" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2:G23"/>
     </sheetView>
   </sheetViews>
